--- a/doc/Liste_Bauelemente.xlsx
+++ b/doc/Liste_Bauelemente.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>LISTE BAUELEMENTE</t>
   </si>
@@ -71,6 +71,15 @@
   </si>
   <si>
     <t>Anzahl</t>
+  </si>
+  <si>
+    <t>W25Q128JVSIQ</t>
+  </si>
+  <si>
+    <t>µC</t>
+  </si>
+  <si>
+    <t>STM32L431CBT6</t>
   </si>
 </sst>
 </file>
@@ -429,7 +438,7 @@
   <dimension ref="B2:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,6 +511,9 @@
       <c r="C7" t="s">
         <v>9</v>
       </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
@@ -535,6 +547,12 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
